--- a/biology/Médecine/Agence_de_la_santé_publique_du_Canada/Agence_de_la_santé_publique_du_Canada.xlsx
+++ b/biology/Médecine/Agence_de_la_santé_publique_du_Canada/Agence_de_la_santé_publique_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agence_de_la_sant%C3%A9_publique_du_Canada</t>
+          <t>Agence_de_la_santé_publique_du_Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Agence de la santé publique du Canada (Public Health Agency of Canada en anglais) est une agence du Gouvernement du Canada qui est responsable pour la santé publique, les préparations pour les urgences et la réponse aux catastrophes nationales et le contrôle des maladies infectieuses et chroniques. L'agence fut formée par un Ordre en Conseil en 2004 et aussi par une loi qui a pris effet le 15 décembre 2006. L'agence est aussi un membre du portfolio fédéral de la santé (avec Santé Canada, L'institut canadien de la recherche médicale et d'autres organisations).
-Le chef de l'Agence de la santé publique est l'administrateur en chef de la santé publique du Canada. En tant que député-ministre de l'Agence de la santé publique du Canada, il ou elle est responsable auprès du ministre de la santé. En tant que plus important officier de la santé publique, il fournit des conseils au ministre de la Santé et au Gouvernement du Canada à propos de la santé des canadiennes et canadiens. De 24 septembre 2014 à décembre 2016, le poste est occupé par Dr Gregory W. Taylor[1]. Depuis le 26 juin 2017, il est occupé par Dre Theresa Tam[2],[3]. 
+Le chef de l'Agence de la santé publique est l'administrateur en chef de la santé publique du Canada. En tant que député-ministre de l'Agence de la santé publique du Canada, il ou elle est responsable auprès du ministre de la santé. En tant que plus important officier de la santé publique, il fournit des conseils au ministre de la Santé et au Gouvernement du Canada à propos de la santé des canadiennes et canadiens. De 24 septembre 2014 à décembre 2016, le poste est occupé par Dr Gregory W. Taylor. Depuis le 26 juin 2017, il est occupé par Dre Theresa Tam,. 
 Le siège social est situé dans deux piliers, l'un à Ottawa et l'autre à Winnipeg, au Manitoba. Le pilier à Winnipeg est aussi le lieu du Centre scientifique canadien de santé humaine et animale, la seul laboratoire microbiologique au niveau quatre au Canada pour la santé humaine.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agence_de_la_sant%C3%A9_publique_du_Canada</t>
+          <t>Agence_de_la_santé_publique_du_Canada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Responsabilités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Détection et contrôle des maladies
 Sécurité de santé
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agence_de_la_sant%C3%A9_publique_du_Canada</t>
+          <t>Agence_de_la_santé_publique_du_Canada</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Structure de l'organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chef de la Santé publique
 Conseille les ministres et travaille avec les autres départements et agences fédéraux et les départements et agences provinciaux et territoriaux, la communauté internationale, la communauté de la santé publique et la population canadienne sur les questions de la santé publique.
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agence_de_la_sant%C3%A9_publique_du_Canada</t>
+          <t>Agence_de_la_santé_publique_du_Canada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,9 +604,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En décembre 2021, un journaliste révèle que l'agence a suivi, à leur insu, les déplacements de plusieurs millions de Canadiens, dans le but de dresser un portrait des motifs de propagation de la Covid-19 au Canada. Un porte-parole de l'agence a déclaré : « À cause de l'urgence de la pandémie, [l'ASPC] a recueilli et utilisé les données de mobilité, comme des données localisation des tours cellulaires, pendant la réaction à la COVID-19»[trad 1]. En mars 2021, l'agence a signé un contrat avec la société Telus pour ce faire, contrat qui a échu en octobre 2021 ; l'ASPC ne pourrait plus consulter les données[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2021, un journaliste révèle que l'agence a suivi, à leur insu, les déplacements de plusieurs millions de Canadiens, dans le but de dresser un portrait des motifs de propagation de la Covid-19 au Canada. Un porte-parole de l'agence a déclaré : « À cause de l'urgence de la pandémie, [l'ASPC] a recueilli et utilisé les données de mobilité, comme des données localisation des tours cellulaires, pendant la réaction à la COVID-19»[trad 1]. En mars 2021, l'agence a signé un contrat avec la société Telus pour ce faire, contrat qui a échu en octobre 2021 ; l'ASPC ne pourrait plus consulter les données.
 </t>
         </is>
       </c>
